--- a/docs/bom/GPS-Compass_BOM.xlsx
+++ b/docs/bom/GPS-Compass_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\GPS-Compass\docs\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Documents\GitHub\GPS-Compass\docs\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DA5F8-C8D1-4232-9FDA-565F5D2726C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B128F45-65F2-452B-A246-56534101E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS-Compass_main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
   <si>
     <t>Value</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>USB-C Conn</t>
+  </si>
+  <si>
+    <t>FFC Conn</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -922,7 +925,6 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -954,55 +956,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
-    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="43" xr:uid="{76D8BAD3-8DB4-4D57-868C-52AAB2B9BDF2}"/>
-    <cellStyle name="Hypertextový odkaz" xfId="42" builtinId="8"/>
-    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" xr:uid="{76D8BAD3-8DB4-4D57-868C-52AAB2B9BDF2}"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1018,7 +1019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1336,22 +1337,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C378E24-255E-4758-9EA3-ADC3BD7350B6}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="35" style="8" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="8"/>
+    <col min="6" max="6" width="32.88671875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1392,7 +1393,7 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1413,7 +1414,7 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1434,7 +1435,7 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1518,7 +1519,7 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1539,7 +1540,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1560,7 +1561,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1581,7 +1582,7 @@
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1599,7 +1600,7 @@
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1620,7 +1621,7 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1636,9 +1637,12 @@
       <c r="E14" t="s">
         <v>68</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1656,7 +1660,7 @@
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1710,7 +1714,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1728,7 +1732,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1746,7 +1750,7 @@
       </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1764,7 +1768,7 @@
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1782,7 +1786,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1800,7 +1804,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1818,7 +1822,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1836,7 +1840,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1854,7 +1858,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1872,7 +1876,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1890,7 +1894,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1908,7 +1912,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1926,7 +1930,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1944,7 +1948,7 @@
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1962,7 +1966,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1980,7 +1984,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1998,7 +2002,7 @@
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2016,7 +2020,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2034,7 +2038,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2052,7 +2056,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2070,7 +2074,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2088,7 +2092,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2106,31 +2110,31 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2138,186 +2142,186 @@
       <c r="E47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49"/>
       <c r="E49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="C50"/>
       <c r="E50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51"/>
       <c r="E51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52"/>
       <c r="E52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C53"/>
       <c r="E53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C54"/>
       <c r="E54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C55"/>
       <c r="E55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C56"/>
       <c r="E56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C57"/>
       <c r="E57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C58"/>
       <c r="E58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C59"/>
       <c r="E59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C60"/>
       <c r="E60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C61"/>
       <c r="E61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C62"/>
       <c r="E62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C63"/>
       <c r="E63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C64"/>
       <c r="E64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C65"/>
       <c r="E65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C66"/>
       <c r="E66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C67"/>
       <c r="E67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C68"/>
       <c r="E68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C69"/>
       <c r="E69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C70"/>
       <c r="E70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C71"/>
       <c r="E71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C72"/>
       <c r="E72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C73"/>
       <c r="E73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C74"/>
       <c r="E74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84" s="6"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89" s="6"/>
     </row>
   </sheetData>
@@ -2335,6 +2339,7 @@
     <hyperlink ref="F10" r:id="rId8" display="0805, 10u, X7R, 16V, 10%, mouser" xr:uid="{59C15BE2-9986-4331-A50A-D183CCD9BA4F}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{DF54B185-EFF2-45A6-AD3B-6015CBB9EBB9}"/>
     <hyperlink ref="F13" r:id="rId10" xr:uid="{A17315F1-DA14-40FF-8388-0522E16F312C}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{5BA104BC-F756-4A5B-A95B-7513C1CF8144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/bom/GPS-Compass_BOM.xlsx
+++ b/docs/bom/GPS-Compass_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Documents\GitHub\GPS-Compass\docs\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\GPS-Compass\docs\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B128F45-65F2-452B-A246-56534101E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB17FD-F7E1-496C-B2DD-BFB6777D240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{318D0819-0F8D-4535-926A-50240C04F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS-Compass_main" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>Value</t>
   </si>
@@ -49,9 +49,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>R16,R15,R25,R21,R18,R20</t>
-  </si>
-  <si>
     <t>R_0805_2012Metric</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>TPS613222ADBV</t>
   </si>
   <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -118,15 +109,6 @@
     <t>1u</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L_Murata_DFE201610P</t>
-  </si>
-  <si>
-    <t>2,2u</t>
-  </si>
-  <si>
     <t>R28,R27</t>
   </si>
   <si>
@@ -163,15 +145,6 @@
     <t>1.5u</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L_Walsin_WLFM201609x</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
     <t>U15</t>
   </si>
   <si>
@@ -374,6 +347,63 @@
   </si>
   <si>
     <t>FFC Conn</t>
+  </si>
+  <si>
+    <t>2.2u</t>
+  </si>
+  <si>
+    <t>L1,L3</t>
+  </si>
+  <si>
+    <t>R16,R15,R25,R21,R18,R20,R17</t>
+  </si>
+  <si>
+    <t>2.2uH, 2.3A, 0907</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>1.5uH, 4.7A, 1212</t>
+  </si>
+  <si>
+    <t>PMOS, 30V, 7.5A</t>
+  </si>
+  <si>
+    <t>15R, 100mW, 0805 panasonic</t>
+  </si>
+  <si>
+    <t>10k, 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>100k, 250mW, 0805, vishay</t>
+  </si>
+  <si>
+    <t>220R, 250mW, 0805 vishay</t>
+  </si>
+  <si>
+    <t>45.3k, 125mW, 0805 vishay</t>
+  </si>
+  <si>
+    <t>24CW1280T-I/OT EEPROM</t>
+  </si>
+  <si>
+    <t>ESD PROT</t>
+  </si>
+  <si>
+    <t>ESP32-WROOM-1-S3-N8</t>
+  </si>
+  <si>
+    <t>Push button</t>
+  </si>
+  <si>
+    <t>BQ25895MRTWR, 1-LiPo, charger</t>
+  </si>
+  <si>
+    <t>TPS613222ADBV, DC-DC</t>
+  </si>
+  <si>
+    <t>BNO055, IMU</t>
   </si>
 </sst>
 </file>
@@ -881,7 +911,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -925,8 +955,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,51 +990,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % – Zvýraznění 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % – Zvýraznění 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % – Zvýraznění 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Celkem" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{76D8BAD3-8DB4-4D57-868C-52AAB2B9BDF2}"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Hypertextový odkaz" xfId="43" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nadpis 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nadpis 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nadpis 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nadpis 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Název" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Neutrální" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Poznámka" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Propojená buňka" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Správně" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Špatně" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Text upozornění" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vstup" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Výpočet" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Výstup" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Vysvětlující text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Zvýraznění 6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1057,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1337,24 +1375,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C378E24-255E-4758-9EA3-ADC3BD7350B6}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="35" style="8" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="8"/>
+    <col min="6" max="6" width="32.85546875" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1375,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1393,748 +1431,770 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C15"/>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
+      <c r="F17" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
       <c r="D21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
+      <c r="F31" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>92</v>
-      </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2142,186 +2202,186 @@
       <c r="E47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="E49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="E50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="E51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="E52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53"/>
       <c r="E53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="E54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="E55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="E56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="E57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="E58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="E59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="E60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="E61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="E62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="E63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="E64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="E65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="E66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="E67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="E68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="E69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="E70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="E71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="E72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="E73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="E74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="6"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="6"/>
     </row>
   </sheetData>
@@ -2340,6 +2400,20 @@
     <hyperlink ref="F11" r:id="rId9" xr:uid="{DF54B185-EFF2-45A6-AD3B-6015CBB9EBB9}"/>
     <hyperlink ref="F13" r:id="rId10" xr:uid="{A17315F1-DA14-40FF-8388-0522E16F312C}"/>
     <hyperlink ref="F14" r:id="rId11" xr:uid="{5BA104BC-F756-4A5B-A95B-7513C1CF8144}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{9F228061-B1EB-42D9-B4CB-17368804BFC2}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{61C7754F-8B57-4E92-925D-42F356FFDB69}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{8B9EB838-0B57-48A1-8EAB-903BECBA9E17}"/>
+    <hyperlink ref="F18" r:id="rId15" display="15R mouser" xr:uid="{58BA9E29-0CED-49DF-89E3-C4080645ADFE}"/>
+    <hyperlink ref="F19" r:id="rId16" display="10k mouser" xr:uid="{DD64AD5D-F3AC-4B54-82D3-AE646BFF9B14}"/>
+    <hyperlink ref="F25" r:id="rId17" display="100k, 250mW, 0805" xr:uid="{88DFE194-06A1-43A6-92CC-84770373A4B3}"/>
+    <hyperlink ref="F22" r:id="rId18" display="220R 250mW" xr:uid="{8F131025-746E-474E-B6EB-BC52BC9DF616}"/>
+    <hyperlink ref="F26" r:id="rId19" display="45.3k, 125mW, vishay" xr:uid="{5E1B75F7-6CE7-4627-B218-06748C4B5438}"/>
+    <hyperlink ref="F29" r:id="rId20" display="24CW1280T-I/OT EEPROMe" xr:uid="{B69B5766-70DF-40CE-ACAF-EE2A107CF509}"/>
+    <hyperlink ref="F34" r:id="rId21" xr:uid="{0C39632C-B42C-41D3-A72E-7AA984F956E6}"/>
+    <hyperlink ref="F27" r:id="rId22" xr:uid="{FC6995DC-A449-4A90-8666-4A182B579F82}"/>
+    <hyperlink ref="F36" r:id="rId23" xr:uid="{8356B82F-E079-47E0-B0A9-610D4FD1FCD5}"/>
+    <hyperlink ref="F31" r:id="rId24" xr:uid="{E9A56F46-80DF-46AB-BF3B-708FA91C4ABC}"/>
+    <hyperlink ref="F30" r:id="rId25" xr:uid="{AC516F58-6FD3-4BA6-BDCA-DF25194CF23A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
